--- a/data/MOREIDIOMS.xlsx
+++ b/data/MOREIDIOMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1DC8DF-371D-4678-B144-89E13EC34C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05990E2-F733-43D0-96F1-B69E07E56804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6E2DA02-3F05-47BE-95B1-C46B817AE1E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>It's a real page-turner</t>
   </si>
@@ -130,13 +130,348 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I finished the book in one day; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>it's a real page-turner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Everybody loves this movie, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I can't seem to get into it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My boss and I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>are on a first-name basis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classical music is nice, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>it puts me to sleep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>He decided to settle on medicine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as his major.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>He wanted to pick my brain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> about the marketing strategy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He wanted to quit, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>he was talked out of it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by his wife.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We were late because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>he said the traffic was impossible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"The test is cancelled." - "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thank goodness for that!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On Black Friday, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the shops are mobbed with people</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It rained on your wedding day? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What a shame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The number of casualties indicates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a severe accident.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Property damage means</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> harm to a house or car.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We interrupt this show for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>breaking news</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You look worried. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What's on your mind?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thanks for the tip, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I'll keep it in mind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,10 +487,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +522,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,19 +545,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,173 +902,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0645D309-4E99-4168-8819-5702AC2F7F6B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
